--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26646B8-E64C-406C-B6DA-86181258B07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8E9DA-D06B-48E7-897C-6FC2661A6640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,12 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE72BA-7A86-453F-B9C0-968C2FB40ED4}">
-  <dimension ref="A1"/>
+  <dimension ref="I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="11" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8E9DA-D06B-48E7-897C-6FC2661A6640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B1C40-57D0-4A28-B612-E9BCF46F86C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -54,12 +54,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,15 +493,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE72BA-7A86-453F-B9C0-968C2FB40ED4}">
-  <dimension ref="I11"/>
+  <dimension ref="D10:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="11" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
         <v>0</v>
       </c>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B1C40-57D0-4A28-B612-E9BCF46F86C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F979D95-CDC2-484B-A0FA-6B3455287521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -54,18 +54,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,7 +76,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +490,7 @@
   <dimension ref="D10:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F979D95-CDC2-484B-A0FA-6B3455287521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAAF821-0E89-4B92-9A21-035B698D0B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -54,12 +54,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,7 +82,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE72BA-7A86-453F-B9C0-968C2FB40ED4}">
-  <dimension ref="D10:I11"/>
+  <dimension ref="E11:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
@@ -495,13 +501,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAAF821-0E89-4B92-9A21-035B698D0B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCC398A-FD40-415A-83FE-DFE57796DCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -54,18 +54,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,7 +76,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCC398A-FD40-415A-83FE-DFE57796DCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF00B61E-6F3B-430A-8FEF-4CE2E82F766F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
   </si>
 </sst>
 </file>
@@ -74,9 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,21 +489,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE72BA-7A86-453F-B9C0-968C2FB40ED4}">
-  <dimension ref="E11:I14"/>
+  <dimension ref="I11:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
+    <row r="15" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF00B61E-6F3B-430A-8FEF-4CE2E82F766F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15642CF3-40F1-4AEA-96CB-385C3BB4A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
     <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE72BA-7A86-453F-B9C0-968C2FB40ED4}">
-  <dimension ref="I11:I15"/>
+  <dimension ref="G11:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,6 +510,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15642CF3-40F1-4AEA-96CB-385C3BB4A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF6C19C-CCAF-4280-B056-8C7E769B7DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -492,20 +495,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE72BA-7A86-453F-B9C0-968C2FB40ED4}">
-  <dimension ref="G11:I19"/>
+  <dimension ref="D11:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="11" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
         <v>1</v>
       </c>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF6C19C-CCAF-4280-B056-8C7E769B7DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8FD8F4-FF8F-4A36-96E5-5019325CD505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE72BA-7A86-453F-B9C0-968C2FB40ED4}">
-  <dimension ref="D11:I19"/>
+  <dimension ref="D11:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,6 +521,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8FD8F4-FF8F-4A36-96E5-5019325CD505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758628E2-809E-491D-B6E4-B56B91CEE2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
   </si>
 </sst>
 </file>
@@ -498,14 +501,14 @@
   <dimension ref="D11:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758628E2-809E-491D-B6E4-B56B91CEE2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE1DA1-69D5-478A-A151-E7DEA2EF4C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -501,7 +501,7 @@
   <dimension ref="D11:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,12 +519,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
         <v>3</v>
       </c>
